--- a/OriginTable/CardDialogue.xlsx
+++ b/OriginTable/CardDialogue.xlsx
@@ -7,21 +7,25 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CardDialogue" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>DialogueID</t>
   </si>
   <si>
     <t>Text</t>
+  </si>
+  <si>
+    <t>文本ID</t>
+  </si>
+  <si>
+    <t>文本内容</t>
   </si>
   <si>
     <t>int</t>
@@ -221,18 +225,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -559,7 +557,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,16 +581,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -601,112 +599,103 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1022,123 +1011,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="2"/>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" ht="16.5" spans="1:3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8"/>
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" ht="16.5" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/OriginTable/CardDialogue.xlsx
+++ b/OriginTable/CardDialogue.xlsx
@@ -25,7 +25,7 @@
     <t>文本ID</t>
   </si>
   <si>
-    <t>文本内容</t>
+    <t>&amp;文本内容</t>
   </si>
   <si>
     <t>int</t>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/OriginTable/CardDialogue.xlsx
+++ b/OriginTable/CardDialogue.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="13710" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="CardDialogue" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>DialogueID</t>
   </si>
@@ -34,19 +34,139 @@
     <t>string</t>
   </si>
   <si>
-    <t>这是给【睡觉】卡用的测试文本1</t>
-  </si>
-  <si>
-    <t>这是给【睡觉】卡用的测试文本2</t>
-  </si>
-  <si>
-    <t>这是给【等待】卡用的测试文本1</t>
-  </si>
-  <si>
-    <t>这是给【等待】卡用的测试文本2</t>
-  </si>
-  <si>
-    <t>这是给【照镜子】卡用的测试文本1</t>
+    <t>你的房间好像和以前一样洁白无染，这只黑色的奇怪生物似乎并不喜欢天使的房间</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;无事发生&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>它眯着眼睛，它在看你</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;安抚值+10&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>它盯着不知道从哪来的食物，就像你不知道骰子从哪来</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;理智-10，警戒度+10&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>它舔了一口你的花圃，现在它已经瞪大眼睛许久了</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;【躁狂】状态层数增加了&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>它（们）聚在你的花圃边上，它们在互相凝视</t>
+  </si>
+  <si>
+    <t>你看到了六只眼睛，骰子一般的数字</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;理智-30&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>它好像突然很喜欢天使的房间，在这里上蹿下跳</t>
+  </si>
+  <si>
+    <t>在家具上留下印痕似乎是它的天性，可惜印痕在下一刻便烟消云散</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;理智-50，警戒度+30&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>你很喜欢的白色玩偶被沾上了一点黑色，不知道玩偶的身后发生了什么</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;警戒度-25&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>刺激和诱惑总在勾动心弦，它显得有些痴醉</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;安抚值+30&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>永远不知道结果的骰子才算真的公正</t>
+  </si>
+  <si>
+    <t>它跃向了不知何处而来的问号骰子，像能顶出金币似的</t>
+  </si>
+  <si>
+    <t>这个房间里所有具备“空间”这一属性的地方都被它造访过了</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;理智+15，警戒度-15&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>躺着的是......等等，它为什么躺在那？规则出错了</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;理智-10，安抚值+10&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>它睁着眼睛，它在看你</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;警戒度-10&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>流水一样的身体在把背拱起时，能够自己感受到背部的动静吗？</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;安抚值+40&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>它眯着眼睛，但是肯定没有在看着你了</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;产生1*骰子点数的【入梦】层数&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>分不清是背面还是正面，它睡着了，但还在动</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;产生2*骰子点数的【入梦】层数，理智+20&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>还未降生的猫咪会梦到黑色的上帝吗？</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;理智-50，警戒度+50&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>降生前的梦境会与之后的有所连接吗？</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;安抚值+20&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>不打开看看怎么知道骰子摇到几了？</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;警戒度-50&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>干杯！</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;理智+1，安抚值+99&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>这个生物和骰子到底有什么关系？</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;产生6*骰子点数的【入梦】层数&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>也许这张卡原本是想让你和猫咪分别扔个骰子</t>
+  </si>
+  <si>
+    <t>它的脸上出现了一些似乎不适合这种生物的表情</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF0000&gt;理智+80&lt;/color&gt;</t>
   </si>
 </sst>
 </file>
@@ -59,7 +179,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +201,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -425,12 +551,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,137 +692,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,7 +838,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,10 +1158,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1041,7 +1188,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="17.25" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1050,55 +1197,395 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
+    <row r="4" ht="17.25" spans="1:3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:3">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:3">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:3">
       <c r="A6" s="4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:3">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:3">
       <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:3">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:3">
       <c r="A8" s="4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:3">
+      <c r="A9" s="4">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:2">
+      <c r="A10" s="4">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:2">
+      <c r="A11" s="4">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:2">
+      <c r="A12" s="4">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:2">
+      <c r="A13" s="4">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:2">
+      <c r="A14" s="4">
+        <v>43</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:2">
+      <c r="A15" s="4">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:2">
+      <c r="A16" s="4">
+        <v>52</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:2">
+      <c r="A17" s="4">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:2">
+      <c r="A18" s="4">
+        <v>62</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:2">
+      <c r="A19" s="4">
+        <v>71</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:2">
+      <c r="A20" s="4">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:2">
+      <c r="A21" s="4">
+        <v>81</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:2">
+      <c r="A22" s="4">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:2">
+      <c r="A23" s="4">
+        <v>91</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:2">
+      <c r="A24" s="4">
+        <v>92</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:2">
+      <c r="A25" s="4">
+        <v>93</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:2">
+      <c r="A26" s="4">
+        <v>101</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:2">
+      <c r="A27" s="4">
+        <v>102</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:2">
+      <c r="A28" s="4">
+        <v>111</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:2">
+      <c r="A29" s="4">
+        <v>112</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:2">
+      <c r="A30" s="4">
+        <v>121</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="1:2">
+      <c r="A31" s="4">
+        <v>122</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="1:2">
+      <c r="A32" s="4">
+        <v>131</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="1:2">
+      <c r="A33" s="4">
+        <v>132</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:2">
+      <c r="A34" s="4">
+        <v>141</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:2">
+      <c r="A35" s="4">
+        <v>142</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:2">
+      <c r="A36" s="4">
+        <v>151</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:2">
+      <c r="A37" s="4">
+        <v>152</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:2">
+      <c r="A38" s="4">
+        <v>161</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="1:2">
+      <c r="A39" s="4">
+        <v>162</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="1:2">
+      <c r="A40" s="4">
+        <v>171</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="1:2">
+      <c r="A41" s="4">
+        <v>172</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="1:2">
+      <c r="A42" s="4">
+        <v>181</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:2">
+      <c r="A43" s="4">
+        <v>182</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="1:2">
+      <c r="A44" s="4">
+        <v>191</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="1:2">
+      <c r="A45" s="4">
+        <v>192</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="1:2">
+      <c r="A46" s="4">
+        <v>201</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="1:2">
+      <c r="A47" s="4">
+        <v>202</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="1:2">
+      <c r="A48" s="4">
+        <v>211</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="1:2">
+      <c r="A49" s="4">
+        <v>212</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="1:2">
+      <c r="A50" s="4">
+        <v>221</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" spans="1:2">
+      <c r="A51" s="4">
+        <v>222</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
